--- a/tabs/ZDATA_map_collaborations.xlsx
+++ b/tabs/ZDATA_map_collaborations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\gitgit\032 teMatDb1.1.6 to csv and filter  -- 20250506\tabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitgit\br2\byungkiryu\tabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D90AA4C-FC68-44CC-AC7C-2BFC85DC0B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFC2558-DF56-4BAE-A9D0-EEE7184BC6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="2" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -421,21 +421,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -450,9 +453,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -587,22 +588,25 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -634,12 +638,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}" name="표1" displayName="표1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I10" xr:uid="{773460B6-1672-4C3D-AA63-31731A2ED31A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="City" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="color" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{76725A37-435A-47EA-AC16-5C7BF741E297}" name="radius" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{03AA161E-E864-4331-AC14-B9C9DAF075CA}" name="City" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2E31BAC7-B3B9-4D60-96FD-1B77E2C90E7E}" name="color" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{76725A37-435A-47EA-AC16-5C7BF741E297}" name="radius" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{40AD35C2-3494-4CCA-8424-8F12DCD25076}" name="site" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{A5525C00-D1A9-402F-B174-CFFEE4388915}" name="who" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{467AEDF0-76C7-4D7F-994C-C6219532A7FA}" name="Collaboration" dataDxfId="4"/>
@@ -917,21 +921,21 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.4375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="8" width="10.8125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -960,14 +964,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>300</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -989,14 +993,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>250</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1018,14 +1022,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>250</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1047,14 +1051,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="12">
         <v>250</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1076,14 +1080,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="12">
         <v>250</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1105,14 +1109,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="12">
         <v>250</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1132,14 +1136,14 @@
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="12">
         <v>250</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1157,14 +1161,14 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="12">
         <v>250</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1186,14 +1190,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="12">
         <v>250</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1233,16 +1237,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="20.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.4375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="8" width="10.8125" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="69.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1441,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1466,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
